--- a/doc/外部設計書関連/02_外部設計書_.生活習慣病2.1 暫定完成.xlsx
+++ b/doc/外部設計書関連/02_外部設計書_.生活習慣病2.1 暫定完成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\外部設計書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED5D987-0C58-4083-8FB0-E9BB8D4491A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB815FC9-D34E-4AC7-A8ED-A12C7F067864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="760" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン機能" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="273">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2432,6 +2432,19 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ジャンルは「赤、緑、黄」</t>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2827,6 +2840,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2878,23 +2903,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12760,8 +12773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AN3"/>
+    <sheetView topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12770,202 +12783,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45454</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -17408,6 +17421,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -17424,7 +17438,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17440,8 +17453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B4DDD3-5648-4220-A982-557BE926C200}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AN3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17450,202 +17463,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45454</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19754,38 +19767,38 @@
     <row r="57" spans="1:40" ht="43.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="44"/>
-      <c r="U57" s="44"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="44"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="44"/>
-      <c r="AA57" s="44"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
-      <c r="AH57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="45"/>
+      <c r="Z57" s="45"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="45"/>
+      <c r="AH57" s="45"/>
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8"/>
       <c r="AK57" s="8"/>
@@ -22075,6 +22088,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -22091,8 +22106,6 @@
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22108,8 +22121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AA942E-30D1-49B2-9036-B0BD64AD5A7C}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="Z73" sqref="Z73"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22118,202 +22131,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -24527,6 +24540,9 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
+      <c r="D59" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -25058,7 +25074,7 @@
       <c r="W71" s="8"/>
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
-      <c r="Z71" s="46" t="s">
+      <c r="Z71" s="24" t="s">
         <v>270</v>
       </c>
       <c r="AA71" s="8"/>
@@ -26928,6 +26944,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -26944,7 +26961,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -26970,202 +26986,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -28729,43 +28745,43 @@
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="45"/>
+      <c r="AE44" s="45"/>
+      <c r="AF44" s="45"/>
+      <c r="AG44" s="45"/>
+      <c r="AH44" s="45"/>
+      <c r="AI44" s="45"/>
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="46"/>
       <c r="AN44" s="7"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -31590,11 +31606,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="E44:AM44"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -31608,6 +31619,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -31633,202 +31649,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -36272,11 +36288,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -36289,6 +36300,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36314,202 +36330,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -40927,11 +40943,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -40944,6 +40955,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -40969,202 +40985,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -45645,6 +45661,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -45661,7 +45678,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -45677,7 +45693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBECB905-B1FE-46A9-9C1E-49C227245DF8}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH3" sqref="AH3:AN3"/>
     </sheetView>
   </sheetViews>
@@ -45687,202 +45703,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="43">
         <v>45450</v>
       </c>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="41">
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="25">
         <v>45455</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="27"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -50298,11 +50314,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -50315,6 +50326,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
